--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
@@ -43,10 +43,10 @@
     <t>Err</t>
   </si>
   <si>
-    <t>LR: IC</t>
-  </si>
-  <si>
-    <t>LR: IC+Dem</t>
+    <t>LR: FC</t>
+  </si>
+  <si>
+    <t>LR: FC+Dem</t>
   </si>
   <si>
     <t>LR: CK</t>
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7655733897605285</v>
+        <v>0.7650327725020644</v>
       </c>
       <c r="C4">
-        <v>0.002643713684639115</v>
+        <v>0.002525477804881548</v>
       </c>
       <c r="D4">
-        <v>0.4516573505731448</v>
+        <v>0.4489592055228392</v>
       </c>
       <c r="E4">
-        <v>0.003416000912100536</v>
+        <v>0.003583807415810769</v>
       </c>
       <c r="F4">
-        <v>0.9828571428571431</v>
+        <v>0.9841964285714287</v>
       </c>
       <c r="G4">
-        <v>0.00154569563499074</v>
+        <v>0.001667547029570615</v>
       </c>
       <c r="H4">
-        <v>0.2934239512410152</v>
+        <v>0.2910630414375735</v>
       </c>
       <c r="I4">
-        <v>0.002998782805547273</v>
+        <v>0.003159301877364018</v>
       </c>
       <c r="J4">
-        <v>0.9778076291744512</v>
+        <v>0.9792892375361116</v>
       </c>
       <c r="K4">
-        <v>0.001548404150124139</v>
+        <v>0.001860826395230109</v>
       </c>
       <c r="L4">
-        <v>0.230635838150289</v>
+        <v>0.2204046242774566</v>
       </c>
       <c r="M4">
-        <v>0.01225281426016669</v>
+        <v>0.01289573977449024</v>
       </c>
       <c r="N4">
-        <v>0.4145851528384278</v>
+        <v>0.407183406113537</v>
       </c>
       <c r="O4">
-        <v>0.008920704559646997</v>
+        <v>0.009368767434903447</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7940754025598679</v>
+        <v>0.7946957576383155</v>
       </c>
       <c r="C5">
-        <v>0.002639713749428063</v>
+        <v>0.002664662103127102</v>
       </c>
       <c r="D5">
-        <v>0.4862933871406425</v>
+        <v>0.4791565063621664</v>
       </c>
       <c r="E5">
-        <v>0.004328401309110219</v>
+        <v>0.004379527330417465</v>
       </c>
       <c r="F5">
-        <v>0.9716071428571431</v>
+        <v>0.9741071428571431</v>
       </c>
       <c r="G5">
-        <v>0.001317605064070526</v>
+        <v>0.001753635799318531</v>
       </c>
       <c r="H5">
-        <v>0.324675713792565</v>
+        <v>0.3181237498084705</v>
       </c>
       <c r="I5">
-        <v>0.003986290508976753</v>
+        <v>0.004041345577520672</v>
       </c>
       <c r="J5">
-        <v>0.9739664353742624</v>
+        <v>0.9750479321717074</v>
       </c>
       <c r="K5">
-        <v>0.0005767353733420189</v>
+        <v>0.0009996535460295997</v>
       </c>
       <c r="L5">
-        <v>0.3417919075144508</v>
+        <v>0.3196531791907514</v>
       </c>
       <c r="M5">
-        <v>0.01272719886439916</v>
+        <v>0.01358601878667615</v>
       </c>
       <c r="N5">
-        <v>0.4958078602620088</v>
+        <v>0.4796943231441048</v>
       </c>
       <c r="O5">
-        <v>0.009324585703580524</v>
+        <v>0.009873042359724471</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.842869332441024</v>
+        <v>0.844170988790363</v>
       </c>
       <c r="C6">
-        <v>0.003336875484106105</v>
+        <v>0.004007794865705128</v>
       </c>
       <c r="D6">
-        <v>0.5573812152652367</v>
+        <v>0.5589961606428181</v>
       </c>
       <c r="E6">
-        <v>0.005709300084519975</v>
+        <v>0.006913087832313591</v>
       </c>
       <c r="F6">
-        <v>0.9572093023255812</v>
+        <v>0.9576744186046511</v>
       </c>
       <c r="G6">
-        <v>0.002044801866873502</v>
+        <v>0.002654453055904393</v>
       </c>
       <c r="H6">
-        <v>0.3938998693745679</v>
+        <v>0.3958342702871652</v>
       </c>
       <c r="I6">
-        <v>0.005836376248733843</v>
+        <v>0.007264323778481796</v>
       </c>
       <c r="J6">
-        <v>0.9761866008389649</v>
+        <v>0.9766441397447225</v>
       </c>
       <c r="K6">
-        <v>0.0009897670687216698</v>
+        <v>0.001329332044965881</v>
       </c>
       <c r="L6">
-        <v>0.5397841726618705</v>
+        <v>0.5411510791366907</v>
       </c>
       <c r="M6">
-        <v>0.01212704919437102</v>
+        <v>0.01425990944485833</v>
       </c>
       <c r="N6">
-        <v>0.6384065934065933</v>
+        <v>0.6395604395604395</v>
       </c>
       <c r="O6">
-        <v>0.008985844672185883</v>
+        <v>0.01052120858863959</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8636222185042663</v>
+        <v>0.8655997992303832</v>
       </c>
       <c r="C7">
-        <v>0.00336946861651366</v>
+        <v>0.003428230039830504</v>
       </c>
       <c r="D7">
-        <v>0.572475394714909</v>
+        <v>0.5765756929928196</v>
       </c>
       <c r="E7">
-        <v>0.006751108532241146</v>
+        <v>0.007539894498121313</v>
       </c>
       <c r="F7">
         <v>0.9569767441860464</v>
       </c>
       <c r="G7">
-        <v>0.002733886668135677</v>
+        <v>0.003032292992015018</v>
       </c>
       <c r="H7">
-        <v>0.4095848487785074</v>
+        <v>0.414073478901496</v>
       </c>
       <c r="I7">
-        <v>0.00741339522941431</v>
+        <v>0.008193717351919816</v>
       </c>
       <c r="J7">
-        <v>0.9774126879891282</v>
+        <v>0.9778254845581685</v>
       </c>
       <c r="K7">
-        <v>0.001333542043547631</v>
+        <v>0.001478742189893079</v>
       </c>
       <c r="L7">
-        <v>0.5671942446043166</v>
+        <v>0.5734532374100719</v>
       </c>
       <c r="M7">
-        <v>0.01304021147746193</v>
+        <v>0.01498171146377902</v>
       </c>
       <c r="N7">
-        <v>0.6592857142857145</v>
+        <v>0.6640659340659341</v>
       </c>
       <c r="O7">
-        <v>0.009534029833277002</v>
+        <v>0.01093530024068512</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.814081621413229</v>
+        <v>0.8120812909621634</v>
       </c>
       <c r="C8">
-        <v>0.002870836888948736</v>
+        <v>0.00320478933308832</v>
       </c>
       <c r="D8">
-        <v>0.460402237073632</v>
+        <v>0.4513757275248713</v>
       </c>
       <c r="E8">
-        <v>0.006860860473237473</v>
+        <v>0.006923017740461945</v>
       </c>
       <c r="F8">
-        <v>0.9516417910447761</v>
+        <v>0.9553731343283581</v>
       </c>
       <c r="G8">
-        <v>0.00326378272468919</v>
+        <v>0.003354142558669948</v>
       </c>
       <c r="H8">
-        <v>0.3046909904838241</v>
+        <v>0.2965037134559482</v>
       </c>
       <c r="I8">
-        <v>0.006258114958379135</v>
+        <v>0.006185803080380969</v>
       </c>
       <c r="J8">
-        <v>0.9751036332248451</v>
+        <v>0.9759409818705176</v>
       </c>
       <c r="K8">
-        <v>0.001088754829097538</v>
+        <v>0.001319071620445422</v>
       </c>
       <c r="L8">
-        <v>0.4534317343173433</v>
+        <v>0.4292619926199262</v>
       </c>
       <c r="M8">
-        <v>0.01820187341670099</v>
+        <v>0.01915418509498024</v>
       </c>
       <c r="N8">
-        <v>0.552189349112426</v>
+        <v>0.5335502958579882</v>
       </c>
       <c r="O8">
-        <v>0.01399056303055968</v>
+        <v>0.01475250840982778</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8238563639367738</v>
+        <v>0.8265396265902959</v>
       </c>
       <c r="C9">
-        <v>0.003423655714733576</v>
+        <v>0.003109821321508388</v>
       </c>
       <c r="D9">
-        <v>0.4944170092370681</v>
+        <v>0.498421934009568</v>
       </c>
       <c r="E9">
-        <v>0.009403327570764702</v>
+        <v>0.009140436773825866</v>
       </c>
       <c r="F9">
-        <v>0.941492537313433</v>
+        <v>0.9386567164179104</v>
       </c>
       <c r="G9">
-        <v>0.002996608841039361</v>
+        <v>0.002756862395288495</v>
       </c>
       <c r="H9">
-        <v>0.3371988615856062</v>
+        <v>0.3411120407164464</v>
       </c>
       <c r="I9">
-        <v>0.009093819241128898</v>
+        <v>0.008660332946514193</v>
       </c>
       <c r="J9">
-        <v>0.9736651436946109</v>
+        <v>0.9727896165162585</v>
       </c>
       <c r="K9">
-        <v>0.0006637514245761977</v>
+        <v>0.0004116144915485842</v>
       </c>
       <c r="L9">
-        <v>0.528450184501845</v>
+        <v>0.5382287822878229</v>
       </c>
       <c r="M9">
-        <v>0.02043745694568522</v>
+        <v>0.02108398950849522</v>
       </c>
       <c r="N9">
-        <v>0.6103254437869823</v>
+        <v>0.617603550295858</v>
       </c>
       <c r="O9">
-        <v>0.01583724576667411</v>
+        <v>0.01638137528502204</v>
       </c>
     </row>
   </sheetData>

--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7650327725020644</v>
+        <v>0.7445066437007875</v>
       </c>
       <c r="C4">
-        <v>0.002525477804881548</v>
+        <v>0.002906741493928999</v>
       </c>
       <c r="D4">
-        <v>0.4489592055228392</v>
+        <v>0.4334017394205988</v>
       </c>
       <c r="E4">
-        <v>0.003583807415810769</v>
+        <v>0.002604604774592012</v>
       </c>
       <c r="F4">
-        <v>0.9841964285714287</v>
+        <v>0.9917322834645671</v>
       </c>
       <c r="G4">
-        <v>0.001667547029570615</v>
+        <v>0.001339319944361539</v>
       </c>
       <c r="H4">
-        <v>0.2910630414375735</v>
+        <v>0.277422327461195</v>
       </c>
       <c r="I4">
-        <v>0.003159301877364018</v>
+        <v>0.002267662532483561</v>
       </c>
       <c r="J4">
-        <v>0.9792892375361116</v>
+        <v>0.9834807553836121</v>
       </c>
       <c r="K4">
-        <v>0.001860826395230109</v>
+        <v>0.002172289153012263</v>
       </c>
       <c r="L4">
-        <v>0.2204046242774566</v>
+        <v>0.14359375</v>
       </c>
       <c r="M4">
-        <v>0.01289573977449024</v>
+        <v>0.00993991662371374</v>
       </c>
       <c r="N4">
-        <v>0.407183406113537</v>
+        <v>0.3543835616438356</v>
       </c>
       <c r="O4">
-        <v>0.009368767434903447</v>
+        <v>0.007182020689484703</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7946957576383155</v>
+        <v>0.7835513041338582</v>
       </c>
       <c r="C5">
-        <v>0.002664662103127102</v>
+        <v>0.002254518341436085</v>
       </c>
       <c r="D5">
-        <v>0.4791565063621664</v>
+        <v>0.473969957197333</v>
       </c>
       <c r="E5">
-        <v>0.004379527330417465</v>
+        <v>0.003720651451942225</v>
       </c>
       <c r="F5">
-        <v>0.9741071428571431</v>
+        <v>0.9767716535433073</v>
       </c>
       <c r="G5">
-        <v>0.001753635799318531</v>
+        <v>0.001320781750029254</v>
       </c>
       <c r="H5">
-        <v>0.3181237498084705</v>
+        <v>0.3131793650245099</v>
       </c>
       <c r="I5">
-        <v>0.004041345577520672</v>
+        <v>0.003423053163128964</v>
       </c>
       <c r="J5">
-        <v>0.9750479321717074</v>
+        <v>0.9743519780412662</v>
       </c>
       <c r="K5">
-        <v>0.0009996535460295997</v>
+        <v>0.000835185471807498</v>
       </c>
       <c r="L5">
-        <v>0.3196531791907514</v>
+        <v>0.2882812499999999</v>
       </c>
       <c r="M5">
-        <v>0.01358601878667615</v>
+        <v>0.01153617699286097</v>
       </c>
       <c r="N5">
-        <v>0.4796943231441048</v>
+        <v>0.4593933463796478</v>
       </c>
       <c r="O5">
-        <v>0.009873042359724471</v>
+        <v>0.008375786320534984</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.844170988790363</v>
+        <v>0.8539653836218032</v>
       </c>
       <c r="C6">
-        <v>0.004007794865705128</v>
+        <v>0.003282192620921887</v>
       </c>
       <c r="D6">
-        <v>0.5589961606428181</v>
+        <v>0.5506867807733208</v>
       </c>
       <c r="E6">
-        <v>0.006913087832313591</v>
+        <v>0.009418992752677213</v>
       </c>
       <c r="F6">
-        <v>0.9576744186046511</v>
+        <v>0.960204081632653</v>
       </c>
       <c r="G6">
-        <v>0.002654453055904393</v>
+        <v>0.003119459946490877</v>
       </c>
       <c r="H6">
-        <v>0.3958342702871652</v>
+        <v>0.3881764161534746</v>
       </c>
       <c r="I6">
-        <v>0.007264323778481796</v>
+        <v>0.009611767314197162</v>
       </c>
       <c r="J6">
-        <v>0.9766441397447225</v>
+        <v>0.9777110298274365</v>
       </c>
       <c r="K6">
-        <v>0.001329332044965881</v>
+        <v>0.00146053738569818</v>
       </c>
       <c r="L6">
-        <v>0.5411510791366907</v>
+        <v>0.5167721518987342</v>
       </c>
       <c r="M6">
-        <v>0.01425990944485833</v>
+        <v>0.02183673886103724</v>
       </c>
       <c r="N6">
-        <v>0.6395604395604395</v>
+        <v>0.6217391304347827</v>
       </c>
       <c r="O6">
-        <v>0.01052120858863959</v>
+        <v>0.01602731304666283</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8655997992303832</v>
+        <v>0.8759222423146474</v>
       </c>
       <c r="C7">
-        <v>0.003428230039830504</v>
+        <v>0.002936383992259262</v>
       </c>
       <c r="D7">
-        <v>0.5765756929928196</v>
+        <v>0.5791229742100367</v>
       </c>
       <c r="E7">
-        <v>0.007539894498121313</v>
+        <v>0.008203993107995244</v>
       </c>
       <c r="F7">
-        <v>0.9569767441860464</v>
+        <v>0.9548979591836734</v>
       </c>
       <c r="G7">
-        <v>0.003032292992015018</v>
+        <v>0.003006990287838018</v>
       </c>
       <c r="H7">
-        <v>0.414073478901496</v>
+        <v>0.4174289849271574</v>
       </c>
       <c r="I7">
-        <v>0.008193717351919816</v>
+        <v>0.009054463372882182</v>
       </c>
       <c r="J7">
-        <v>0.9778254845581685</v>
+        <v>0.9769049406795588</v>
       </c>
       <c r="K7">
-        <v>0.001478742189893079</v>
+        <v>0.0012488050885886</v>
       </c>
       <c r="L7">
-        <v>0.5734532374100719</v>
+        <v>0.5775949367088608</v>
       </c>
       <c r="M7">
-        <v>0.01498171146377902</v>
+        <v>0.01617301527795822</v>
       </c>
       <c r="N7">
-        <v>0.6640659340659341</v>
+        <v>0.6669082125603865</v>
       </c>
       <c r="O7">
-        <v>0.01093530024068512</v>
+        <v>0.01175757673777167</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8120812909621634</v>
+        <v>0.8063562301689392</v>
       </c>
       <c r="C8">
-        <v>0.00320478933308832</v>
+        <v>0.003118094840048991</v>
       </c>
       <c r="D8">
-        <v>0.4513757275248713</v>
+        <v>0.4659687088883326</v>
       </c>
       <c r="E8">
-        <v>0.006923017740461945</v>
+        <v>0.005642616462289085</v>
       </c>
       <c r="F8">
-        <v>0.9553731343283581</v>
+        <v>0.9570512820512821</v>
       </c>
       <c r="G8">
-        <v>0.003354142558669948</v>
+        <v>0.002641562541175646</v>
       </c>
       <c r="H8">
-        <v>0.2965037134559482</v>
+        <v>0.308643662149502</v>
       </c>
       <c r="I8">
-        <v>0.006185803080380969</v>
+        <v>0.005198070429536905</v>
       </c>
       <c r="J8">
-        <v>0.9759409818705176</v>
+        <v>0.9754026854460522</v>
       </c>
       <c r="K8">
-        <v>0.001319071620445422</v>
+        <v>0.001089015302674134</v>
       </c>
       <c r="L8">
-        <v>0.4292619926199262</v>
+        <v>0.4342809364548495</v>
       </c>
       <c r="M8">
-        <v>0.01915418509498024</v>
+        <v>0.01487319052721731</v>
       </c>
       <c r="N8">
-        <v>0.5335502958579882</v>
+        <v>0.5424403183023874</v>
       </c>
       <c r="O8">
-        <v>0.01475250840982778</v>
+        <v>0.01131808224401165</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8265396265902959</v>
+        <v>0.8240571134551068</v>
       </c>
       <c r="C9">
-        <v>0.003109821321508388</v>
+        <v>0.002730394610175768</v>
       </c>
       <c r="D9">
-        <v>0.498421934009568</v>
+        <v>0.5058994288856525</v>
       </c>
       <c r="E9">
-        <v>0.009140436773825866</v>
+        <v>0.00745377955143775</v>
       </c>
       <c r="F9">
-        <v>0.9386567164179104</v>
+        <v>0.9457692307692307</v>
       </c>
       <c r="G9">
-        <v>0.002756862395288495</v>
+        <v>0.003000265545879066</v>
       </c>
       <c r="H9">
-        <v>0.3411120407164464</v>
+        <v>0.346633345781714</v>
       </c>
       <c r="I9">
-        <v>0.008660332946514193</v>
+        <v>0.007324286095306998</v>
       </c>
       <c r="J9">
-        <v>0.9727896165162585</v>
+        <v>0.9742448460449387</v>
       </c>
       <c r="K9">
-        <v>0.0004116144915485842</v>
+        <v>0.000905259849604656</v>
       </c>
       <c r="L9">
-        <v>0.5382287822878229</v>
+        <v>0.525819397993311</v>
       </c>
       <c r="M9">
-        <v>0.02108398950849522</v>
+        <v>0.01673489278496165</v>
       </c>
       <c r="N9">
-        <v>0.617603550295858</v>
+        <v>0.6127055702917772</v>
       </c>
       <c r="O9">
-        <v>0.01638137528502204</v>
+        <v>0.01271980579539433</v>
       </c>
     </row>
   </sheetData>
